--- a/nr-rm-extension-nationality/ig/StructureDefinition-as-ext-codeableconcept-timed-metadata.xlsx
+++ b/nr-rm-extension-nationality/ig/StructureDefinition-as-ext-codeableconcept-timed-metadata.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T12:07:38+00:00</t>
+    <t>2025-10-08T12:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1627,7 +1627,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>113</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>122</v>
       </c>
@@ -1841,12 +1841,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AK10">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
